--- a/data/test/IncDec-test-5768.xlsx
+++ b/data/test/IncDec-test-5768.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,47 +448,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Republicans claimed thenjust as they do nowthat the solution was to produce more oil domestically</t>
+          <t>I am pleased to report that last week the House overwhelmingly passed the Nuclear Waste Policy Amendments Act of 2018</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>It would affect ethanol prices to some extent</t>
+          <t>Timely advance in clean coal technology will require significant cost share funding for research and development projects and demonstrations of emerging technology and tax incentives to reduce the risks and encourage early development and refinement of the new technologies</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>New teams will come with expertise something like auditors with expertise in energy trading something like that and if they wont perform theyll be thrown out</t>
+          <t>So for instance one of my companies Sun Drop Fuels has adopted a different model so they went to Chesapeake a natural gas company because they are going to use natural gas as part of the feedstock in their plant</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>And I know that GE in my district is working on advanced battery manufacturing that will address storage capacity for renewables</t>
+          <t>We know that Chinas use of coal and the world has grown from 20 percent to about 30 percent now and it is expected to get to use 40 percent of the worlds coal in the next 15 years or so we know that Chinas emissions have grown by 80 percent since 1990 and they are expected to grow another 65 percent by the year 2020</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Last fall we published a report Biofuels Issues and Trendsit is attached to my testimonyto provide an overview of the dynamics of production consumption trade in ethanol biodiesel and cellulosic fuels</t>
+          <t>The Report notes that The energy burden on lowincome households as a proportion of income is four times greater than for other American households</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I mean that is why we want gasoline or diesel or biofuels or something</t>
+          <t>As a result diesel vehicles will achieve gasolinelike emissions levels</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Second did the Department of Energy sufficiently monitor the financial status of Solyndra after loan disbursements began particularly as the market forces seemed to be against them</t>
+          <t>For example the Chairman of the Crow Nation the tribal Nation in Montana has testified before congress that the importance of coal mining to the economy of the Crow Reservation cannot be overstated</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,37 +518,37 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>For these technologies air pollutant emissions will be associated only with the transport of the hydrogen to the point of use</t>
+          <t>The method can accept a variety of feedstocks including natural gas coal and biomass</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I am here to speak a bit about the Regional Greenhouse Gas Initiative that nine and soon 10 States in the Northeast have embraced to deal with greenhouse gas emissions from the electricity generation sector in our State</t>
+          <t>Strong economic growth particularly in China and the United States is fueling a surge in oil demand</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>As you all know the first export of LNG to scheduled to happen later this month maybe early March at Sabine Pass in Louisiana right next to Texas my own State</t>
+          <t>Were you involved in any communications with the White House to push the Department of Energy to speed this thing along</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Funding of energy efficiency programs is a key piece of such a public benefits program with discretion provided to states</t>
+          <t>As you will hear today however we believe that elements of the alternative fuels discussion draft as currently constructed will not fully achieve those objectives and may ultimately be counterproductive</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I am pointing out the title of this hearing is legislation to respond to the BP oil spill and yet I dont see anything in this bill that actually helps us address the problems we are dealing with today</t>
+          <t>To date the energy sector has done a good job of guarding consumers against losses caused by a cyber or physical attack</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Our aim is to strengthen energy markets and encourage innovation throughout the electricity sector giving consumers more choice and greater control over their energy decisions while also benefiting the environment</t>
+          <t>OK well it will also have to replace fossil fuel energy generation in addition</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,17 +578,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>We are currently bound to a petroleum infrastructure and before drivers will purchase a fuel cell vehicle they have to have confidence in a hydrogen refueling infrastructure</t>
+          <t>Has the RFS reduced the need for foreign oil</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lawmakers must examine the welltowheels cost and impact of EVs from power plant energy distribution to battery disposal</t>
+          <t>Energy is the issue and it is one we need to deal with thoughtfully carefully deliberately through the legislative process</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Muir is concerned only about carbon</t>
+          <t>What do you see as the Federal Governments proper role in encouraging the use of alternative fuels in vehicles</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>They have to be and I am wonderingyoure over at the meeting with the gas folks12000 peopleare there any topics that are being discussed specifically as to energy efficiency</t>
+          <t>We have been asking for a number of years for the Department of Energy to do the necessary investigations to start making those kinds of determinations and we dont yet have that information in place</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,17 +618,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Soand the other thing I would add is that they are not clean or completely fossilfuel free the way that renewables are</t>
+          <t>Make no mistake the Clean Power Plan is coerciveeither a state comes up with a plan that meets with EPAs approval or EPA will impose its own Federal Implementation Plan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Second EPA is about to begin an emissions trading program for nitrogen oxide in the northeast and midwest which will also bring about significant reductions beginning in 2003</t>
+          <t>These plants have proven to be highly reliable in all weather conditions costeffective in operation and act as crucial anchors to the national electric grid</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,67 +638,67 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Second I do think that green coal and carbon sequestration is the most important single breakthrough we could make because the objective fact is China is adding one coalburning plant a week</t>
+          <t>The Energy and Commerce Committee should continue to lead the effort to ensure the Federal government meets is moral and fiduciary responsibility to clean up its defense waste and ensure the permanent safe disposal of spent nuclear fuel</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Should this final FIP result in closure of the San Juan plant and mine hundreds of jobs will be lost not only in the coal and power industry on the Nation but in the service support industry and public sector as well</t>
+          <t>Senator Daschle has introduced S 670 which adopts an ethanol mandate similar to the approach to S 2962</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>As states get closer to the implementation date for their fuel programs the greater the temptation to change the date rather than deal with the uncertainty</t>
+          <t>I also urge that any proposal considered by this committee have the best interests of electricity consumers in mind including the promotion of conservation and renewable and innovative energy sources</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>For natural gas the market is strong and active</t>
+          <t>She thought everybody had asthma because they are all breathing that diesel smoke and toxic fumes</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Thus because implementation of RFG will produce more NOINFXINF emissions than Georgias lowsulfur gasoline RFG may actually produce higher ozone values and adversely impact public health</t>
+          <t>Anticipating efforts in the first half of 2006 particularly in the first quarter and moderating energy prices will create a seesaw effect for the US economy and manufacturing</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Congressman to me the answer to your questions depends on what your view of future fossil fuel prices are</t>
+          <t>We support requiring all lightduty vehicles starting in 2023 to be designed specifically to run on this fuel on at least a 95 octane rating and potentially higher</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>And he says he bids on a job and he has to be competitive with his bid and then overnight the price of diesel goes up and sometimes it goes up from when he starts the job several times before he finishes the job and there goes his profit</t>
+          <t>This is what he said Simply put the Clean Air Act oxygen mandate slows environmental improvement raises costs and is no longer required to ensure substantial and sustained ethanol use in California</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,17 +708,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Number 2 you have got to have six greenhouse gases so the lowhanging fruit that can be accomplished by changes that reduce other greenhouse gases like methane or NOx any of those the hydrofluorocarbons et cetera can help get rid of it</t>
+          <t>But I worry that you will labor mightily and give forth with a capandtrade that will produce a carbon price that is too low to affect physical change</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Our staff closely tracked the markets to make sure that no one took advantage of the situation to manipulate the energy markets</t>
+          <t>No matter what decision we make on Yucca Mountain we still have a nuclear waste disposal issue</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,17 +728,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Page 11 of your testimony you recommend that Congress require the Clean Air Scientific Advisory Committee CASAC to comply with the Clean Air Act Section 109d and advise the Administrator of any adverse public health welfare social economic or energy effects which may result from various strategies for attainment and maintenance of air quality standards</t>
+          <t>Second did the Department of Energy sufficiently monitor the financial status of Solyndra after loan disbursements began particularly as the market forces seemed to be against them</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>And I visited Oregon Techs oneofakind geothermal plant in August and saw firsthand how they are taking advantage of great renewable resources in the Klamath Basin</t>
+          <t>The changes would inappropriately expand FERCs natural gas authority attempt to undermine States rights and undermine the important role that other Federal and State agencies play in protecting natural resources for the public</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I dont know that we are going to pick and choose the generation sources or the energy sources that is where the American peoplefor other policymakers</t>
+          <t>We are approaching the dawn of as I made reference to in that film the new American energy era a time of energy abundance security and yes even independence</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Canada is already the largest supplier of energy to the United States meeting 12 percent of current US petroleum consumption needs and 18 percent of US petroleum imports</t>
+          <t>The savings from the CAFE proposal like I mentioned is more than three times proven reserves of oil in the United States</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>And I guess it is a fine line between market uncertainty and price gouging in many of our minds because people price gouge because consumers are uncertain and they know gas costs are rising correct</t>
+          <t>The markets are so tight though that if we can moderate demand a little bit our analysis using the same computer models that DOE uses indicates that with 4 to 5 percent energy savings we can reduce these prices over the next decade by 20 percent or more</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,137 +778,137 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Do you think that all drinking water systems that are located near wastewater treatment facilities that accept drilling waste should monitor intake water for radioactivity and other potentially hazardous byproducts of these activities</t>
+          <t>Today we are examining a law the Renewable Fuel Standard or RFS that is driving development of those new lowcarbon renewable fuels</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>The USGS has actively participated in two previous Federal reviews of MTBE and other oxygenates in gasoline</t>
+          <t>First the nuclear crisis in Japan is now in its fourth week with no end in sight</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>With regards to research and investment I do agree with Dr Howard that we believe all sorts of fuel need to be optimized</t>
+          <t>Over the last decade we have emerged as the worlds leading producer of oil and natural gas and at the same time we lead the world in CO2 emission reductions a fact that proves that energy production and environmental protection are not mutually exclusive goals</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>For illustrative purposes 43 quads is equivalent tobullet Over 20 million short tons of coal or enough coal to fill a coal train of railroad cars almost 2000 miles longbullet 418 billion cubic feet of natural gasbullet Almost 35 billion gallons of gasoline or more than 10 days of US gasoline consumptionbullet Almost 10 hours of the entire worlds energy use based on consumption levels in 1996bullet Nearly half of the approximate annual primary consumption of any one of the following states Arizona Arkansas Colorado Iowa Kansas Mississippi or Oregon based on consumption levels in 1996 This 43 quads represents a 39 total annual savings in cooling and a 19 savings in heating or a total heat and cooling savings of approximately 25 billion per year by 2010 given an adoption baseline of 1996</t>
+          <t>Well from my perspective its put the oil industrys perspective first and the rural communities have taken a lot of abuse through these Small Refinery Exemptions</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>The technology allows older coal plants to be retrofitted to burn cleaner eliminating the hassle of permitting a new power plant</t>
+          <t>Our staff closely tracked the markets to make sure that no one took advantage of the situation to manipulate the energy markets</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>This is what he said Simply put the Clean Air Act oxygen mandate slows environmental improvement raises costs and is no longer required to ensure substantial and sustained ethanol use in California</t>
+          <t>Soand the other thing I would add is that they are not clean or completely fossilfuel free the way that renewables are</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>But the good news here is that the shortterm energy markets appeared to adjust rather quickly to the collapse of the largest energy trading company in the world</t>
+          <t>Commander Lippold are you concerned that this legislation essentially permanently lifts the ban even though we may start to see a decrease in oil production as early as the 2020s</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Production off Louisianas shore alone contributes an average of 5 billion a year to the Federal Treasury and that was when oil was less than the 68abarrelplus today</t>
+          <t>It is with growing incredulity that the rest of the industrialized world views the effectiveness of energy industry disinformation campaigns with the American public</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Through research and demonstration of hydrogen generation and storage technology we will be able to gain the necessary safety knowledge which will lead to data driven codes and standards that do not currently exist</t>
+          <t>The Association of Oil Pipe Lines is a trade association of owners and operators of crude oil and refined petroleum product pipelines</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>As the FERC commissioners make clear in their letter a thorough assessment of the impacts of for example the proposed Clean Power Plan requires the ongoing input of diverse perspectives and expertise</t>
+          <t>The US Senate has twice passed a RPS and the majority of Senators on the energy bill conference supported the Bingaman RPS amendment</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Siemens Ford and Volvo have all made engines that reduce particulate emissions by more than 90 percent and nitric oxides similarly remarkably reduced</t>
+          <t>Are weas we move forward in supplementing initial fuelsalternative fuels</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>The Association of Oil Pipe Lines is a trade association of owners and operators of crude oil and refined petroleum product pipelines</t>
+          <t>We encourage Congress to learn from States like New Mexico when implementing programs to reduce greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Joe Barton Chairman Committee on Energy and Commerce Thank you Mr Chairman for holding this hearing to determine the current status of the Alaska Natural Gas Pipeline</t>
+          <t>Id like to talk about one thing that largely did work and thats nuclear energy</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>We have been asking for a number of years for the Department of Energy to do the necessary investigations to start making those kinds of determinations and we dont yet have that information in place</t>
+          <t>And I see no way that energy costs are going down</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,27 +918,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Also because Kansas allows local utilities to flow through the cost of gas to consumers the ratepayers experienced dramatic increases in the cost of natural gas during the winter seasons</t>
+          <t>Again I have those plants I have coal plants but I also have refineries and chemical plants that have another issue</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Timely advance in clean coal technology will require significant cost share funding for research and development projects and demonstrations of emerging technology and tax incentives to reduce the risks and encourage early development and refinement of the new technologies</t>
+          <t>However it is doubtful that hydrogen demand will increase so rapidly as to adversely affect the supply of natural gas</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Have you analyzed how expected and observed climate changes will affect natural gas price fluctuations</t>
+          <t>This of course means that we will have to have an increase in nuclear waste and we need to safely store it</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,47 +948,47 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>So maybe someday we have this hole underground it can be used for longterm nuclear storage</t>
+          <t>But if only 2 percent of the natural gas escapes through to the atmosphere then we are going to be in worse shape than if we used coal</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>The experts EPA and the National Academy of Sciences have already drawn the conclusion that especially in the short run when we need greenhouse gas reduction the most corn ethanol is increasing emissions by increasing the amount of carbon that is released into the atmosphere</t>
+          <t>Were very pleased to be here to discuss the final report of the Commission to Review the Effectiveness of the National Energy Laboratories</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>We are committed to working with Congress to explore ways to maintain or enhance environmental benefits of clean fuels programs while exploring ways to increase the flexibility of the fuels distribution infrastructure and minimize costs</t>
+          <t>Also consistent with NPC recommendations the program promotes maximum collaboration between the federal government industry and academia and it establishes a program that is an order of magnitude larger than the Department of Energys existing gas supply RD program</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Benefiting from the economyofscale by operating and servicing a larger number of nuclear plants within a single organization these companies will be in a position to handle the financial and technological challenges that must be managed in launching the next generation of nuclear plants</t>
+          <t>While that is a viable use for injected carbon we also need to store large quantities of it underground indefinitely and on that front further research development and demonstration is clearly called for</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intense foreign competition from Stateowned enterprises poses another challenge for US companies particularly in the civil nuclear sector</t>
+          <t>That fuel switching transferred many jobs out of Appalachia to the western part of the United States</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>How many are actively involved in producing ethanol or biodiesel portion of the refineries</t>
+          <t>Because they will now have the controlling interest in that oil field so they can do what</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,17 +1008,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>For example low NOINFXINF burner technology developed through the program is now on 75 percent of US coal fired power plants</t>
+          <t>Excavation damage is the leading cause of natural gas distribution pipeline incidents</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>They are going to have to figure out what problems that will cause with the disconnect with our present Georgia gasoline</t>
+          <t>On the third page of this document listed are two independent spent fuel storage installations</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>We have frequently analyzed the consequence of lower world oil prices on different regions of the world</t>
+          <t>The United States has such incredible energy abundance</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>I mean it seemed to me we ran a 2 to 3 natural gas for a long time</t>
+          <t>In the next 2 weeks large oil pipeline operators will be in compliance with the required baseline testing deadline of the highest risk segments set by the regulations</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Offering alternatives that must be included by the Secretary is an unnecessary infringement on the agencys authority and expertise but granting this preferential treatment to hydropower interests is patently unjust unfair and inconsistent with every other element of the Federal Power Act</t>
+          <t>The amount of gasoline that can be supplied to a particular region may be inflexible in the short run because of various limitations on refining and transportation capabilities or product requirements unique to that region</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,37 +1058,37 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>First the nuclear crisis in Japan is now in its fourth week with no end in sight</t>
+          <t>This bill is a radical rewrite of the Clean Air Act that would block any real reductions in carbon pollution from coal plants and it ignores 40 years of experience</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>And you indicated up front that innovation and energy was one of your was one of your goals</t>
+          <t>So you do acknowledge that using a lot of fuel does in fact create jobs</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Our work on energy issues has described some of the consequences of hurricanes on petroleum marketssuch as rapid gasoline price increases</t>
+          <t>What I wanted to say was that we looked at this and did some computations in the study that we did at NERA and what we found is that using an oil export ban to try to limit field emissions or greenhouse gas emissions associated with fuel consumption is about the worst possible climate policy you could think of</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>We are now in the midst of preparations for an important transitionfrom the prelicensing role defined for NRC in statute to the role of regulator and licensing authorityif a decision is made to authorize the Department of Energy DOE to submit a license application for Yucca Mountain</t>
+          <t>Well in a side note a number of us went to Mexico for an interparliamentary the Friday before Thanksgiving and one of the things that was the highlight of our discussion with the Members of Congreso was the recent decision on the pipeline from Texas natural gas pipeline to northern Mexico because they dontobviously have a lot of resources but not enough production</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,17 +1098,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Coalfired electricity is only cheap if one ignores the health and economic costs</t>
+          <t>It is time for Congress to provide an updated National Energy policy</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Anticipating efforts in the first half of 2006 particularly in the first quarter and moderating energy prices will create a seesaw effect for the US economy and manufacturing</t>
+          <t>As potential vulnerabilities emerge in the Nations utility distribution infrastructure ensuring reliable sources of energy for our installations has become increasingly challenging</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,17 +1118,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Each day more exploration and development activity in the Gulf is lost</t>
+          <t>Ultimately Congressman if the Department of Homeland Security felt that the Nuclear Regulatory Commission hadnt moved either quickly enough or effectively enough visavis the threat you are talking about one would hope that the new Cabinet Secretary in conjunction with the chairman of the Nuclear Regulatory Commission can resolve that</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>There has been widespread media reports and even some comments by congressional leaders of gasoline price gouging by gasoline marketers in the wake of Katrina</t>
+          <t>This has to do with lowenriched uranium fuel</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,27 +1138,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>The depressing part of my introduction is I realize I have been at this for 3 decades as part of the House of Representatives staff during the oil embargoes and after I was with Mr Garvin in 1983 and 1984 in the Energy Department running conservation and renewable programs and have been a consumer advocate for the last 10 years</t>
+          <t>The concern I have I have expressed it many times on the high cost of natural gas and not only for heating our homes or cooling our homes if you are in my area of the country but also for the feed stock for our petrochemical industry</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>We can all agree that we do need some oil and gas development</t>
+          <t>The Department of Energys 32 billion budget proposal serves as a reminder of the broad range of defense science energy and environmental activities that your agency pursues to perform its really important critical I would say national and energy security missions</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>The job creators the haulers the steel mills have all lost the ability to create jobs because of a policy that was designed and I will just end on this a policy that was designed to protect us against state oil interests</t>
+          <t>S 389 extends the existing credit and creates a second drilling window that also applies to heavy oil</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,37 +1168,37 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mr Roberts you mentioned the United Mine Workers in Appalachia and Illinois and I want you to know that there are a lot of them in my district in Western Kentucky and we are excited about Peabody Coal Company being ready to open up a new mine and also entered with a consortium on a power plant also that will use some local coal</t>
+          <t>The depressing part of my introduction is I realize I have been at this for 3 decades as part of the House of Representatives staff during the oil embargoes and after I was with Mr Garvin in 1983 and 1984 in the Energy Department running conservation and renewable programs and have been a consumer advocate for the last 10 years</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>We dont harness the electricity we can from natural gas we dont sell it we dont pull it up we dont benefit the economy from it</t>
+          <t>Well I am just in the research and analysis business but I would thinkand my friends in the industry can speak perhaps better but I think the biggest concern or two really one would be that the government is going to stand in the way of infrastructure projects that are needed to get investment in domestic oil and gas production and the second would be uncertainty about regulation of hydraulic fracturing going forward</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>And so figuring out a mechanism to make sure we can do the work necessary to be able to fully use hydropower is critical</t>
+          <t>For natural gas the market is strong and active</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>I mean the National Association of Manufacturers claims our country would lose 3 to 4 million jobs as a result of a cap and trade energy tax so I just wanted to know if you or any other members of the panel want to answer that question</t>
+          <t>I was sitting here listening thinking of a hearing we had not many weeks ago and Mr Greenspan was with us talking about the current situation with natural gas supplies and pricing in this country</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,17 +1208,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>The reference case includes the effects of several policies aimed at increasing energy efficiency in both enduse technologies and supply technologies including minimum efficiency standards and voluntary energy savings programs</t>
+          <t>We will invest in medical research and clean energy technology</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Creation of a governmentindustry partnership to pursue two short term objectives resolving technical andor economic issues associated with the new nuclear plant designs and validating the new licensing processverifying that it works as intended and will not place private sector investment at risk</t>
+          <t>And so figuring out a mechanism to make sure we can do the work necessary to be able to fully use hydropower is critical</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,47 +1228,47 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Second with regard to clean coal as you know we dont support subsidies for coal</t>
+          <t>Have you analyzed how expected and observed climate changes will affect natural gas price fluctuations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>So againit came up in the other hearing and I do feel obligated to point outthere is a limit to how much energy you can import if everyone is using their system to the maximum</t>
+          <t>The other thing we can do is to make sure that any difficulties associated with splashblended ethanol are addressed by allowing us to incorporate ethanol into other ethers for example ETBE</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>In my testimony today I will describe the CFTCs oversight of the energy futures markets</t>
+          <t>Let me ask you point blank does it make sense for us to have a regulatory structure where it costs almost four times as much to license a hydropower plant as it costs to license a new natural gasfired plant</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>The Department of Energy and the National Nuclear Security Administration are fully committed to the homeland security mission and the successful establishment of the Department of Homeland Security</t>
+          <t>An ethanol plant in these areas is an economic engine that revitalizes those areas in demonstrable ways</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>This authority is vested in the Secretary of Energy and has been delegated to the assistant secretary for fossil energy</t>
+          <t>Mr Shimkus asked earlier whether climate legislation would raise gasoline and electricity prices</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,37 +1278,37 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>As you are aware ConocoPhillips supports passage of a comprehensive Federal law establishing a clear and transparent price for carbon</t>
+          <t>Unfortunately due to nonmarket governmental forces giving preferential treatment to certain renewables two of these plants Byron and Dresden are now slated for closure</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>She thought everybody had asthma because they are all breathing that diesel smoke and toxic fumes</t>
+          <t>But the good news here is that the shortterm energy markets appeared to adjust rather quickly to the collapse of the largest energy trading company in the world</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>These two projects represent the future of coal</t>
+          <t>My advice to you would be that there would be incentives for the continued investment and development of technology to reduce carbon which does not yet exist</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>That being said Dr Friedmann how do you react to the allegations that the administration is waging this war on coal</t>
+          <t>The USGS has actively participated in two previous Federal reviews of MTBE and other oxygenates in gasoline</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1328,47 +1328,47 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>To highlight a few first we should reestablish and expand Federal agency targets for annual improvements and energy efficiency renewable energy and other key metrics and make needed changes to unlock the use of contracting mechanisms that leverage private funds for public efficiency and renewable projects</t>
+          <t>VW willfully and knowingly cheated having installed engine software in 480000 diesel vehicles to defeat emissions tests</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>I am drafting legislation to examine the nexus between DOEs nuclear research programs and the NRCs licensing capabilities and earlier this week my office sent over the discussion draft</t>
+          <t>But you continue to hide evaporative emissions by even using tailpipe emissions in my opinion</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>It is in the national interest and the interest for our economy to get this going and Texans we are understanding of energy issues and the necessity of getting energy to market</t>
+          <t>Notably the agencies appearing today along with many others signed an MOU in April seeking to establish a cooperative relationship and expedite authorizations of major infrastructure projects including hydropower facilities</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>This initiative requires relatively modest federal investment in nuclear energy research and development</t>
+          <t>Should the interstate shipment of coal be stopped because of the pollution it causes</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Municipal utilities in my Tennessee district saw the cost of natural gas soar to near 10 per million Btus on the spot market over the winter</t>
+          <t>Putting the current situation in a broader more positive perspective however the US has some of the cleanest and least costly fuels in the world</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>The other thing we can do is to make sure that any difficulties associated with splashblended ethanol are addressed by allowing us to incorporate ethanol into other ethers for example ETBE</t>
+          <t>Ultimately advanced concepts such as that of the DOEs Vision 21 program offer the advantages of clean efficient power with simultaneous production of liquid transportation fuels to reduce our dependence on imported petroleum</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,37 +1388,37 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Now its been reported that EPA has had Toyota run emissions tests on clean burn diesel vehicles for the European market</t>
+          <t>I dont know that we are going to pick and choose the generation sources or the energy sources that is where the American peoplefor other policymakers</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Commander Lippold are you concerned that this legislation essentially permanently lifts the ban even though we may start to see a decrease in oil production as early as the 2020s</t>
+          <t>Too often lowincome older persons are faced with the choice of risking their health and comfort by cutting back on energy expenditures or reducing spending for other basic necessities</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>fuel receipt and the transportation systems to be compatible with the currently NRC licensed storagetransportation systems then they could classify the fuel in those systems as nonstandard causing that fuel to lose its place in the DOEs fuel acceptance queue</t>
+          <t>Municipal utilities in my Tennessee district saw the cost of natural gas soar to near 10 per million Btus on the spot market over the winter</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>We have a very favorable climate for construction approval siting of new power plants new generating facilities</t>
+          <t>That being said Dr Friedmann how do you react to the allegations that the administration is waging this war on coal</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,27 +1428,27 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>But I worry that you will labor mightily and give forth with a capandtrade that will produce a carbon price that is too low to affect physical change</t>
+          <t>Fueling Infrastructure The third challenge we have to overcome is developing business models for the deployment of a hydrogen infrastructure and piloting technologies to support it</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>We greatly appreciate the bipartisan support for coal in the Committee as reflected in both the Housepassed version of HR</t>
+          <t>Could we talk for just a minute about the energy policy that is being followed by this administration</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>I have been downstairs at the hearing on subsidies and price gouging on gas prices and we will be bouncing back and forth all day</t>
+          <t>So if that were correct and I dont disagree with you on that coming from a coal State but if that is correct then why are we having policy that is moving us in that direction</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>OK And I also understand that there is a market issue in terms of how the New England plants buy their gas</t>
+          <t>The commission has a stake in the national energy policy and has identified areas where new legislation would be helpful</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,17 +1468,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Last year US production increased over a million barrels a day and if we were to repeal the ban on crude oil exportsnow this is an opinion</t>
+          <t>Again less American jobs more dependence on foreign oil</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>We are approaching the dawn of as I made reference to in that film the new American energy era a time of energy abundance security and yes even independence</t>
+          <t>For instance over the last several years FERC issued two landmark orders facilitating energy storage and aggregated distributor energy resources participation in our organized wholesale markets</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,47 +1488,47 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>As members of this committee are well aware FERC has been without a quorum since February which has prevented action on crucial energy infrastructure projects</t>
+          <t>Second I do think that green coal and carbon sequestration is the most important single breakthrough we could make because the objective fact is China is adding one coalburning plant a week</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Of course some might argue that there is big difference between running a coaltochemicals manufacturing facility and a coaltoelectricity power plant</t>
+          <t>Thus because implementation of RFG will produce more NOINFXINF emissions than Georgias lowsulfur gasoline RFG may actually produce higher ozone values and adversely impact public health</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Under this scenario a state could never achieve attainment status with its own efforts rather the ability of states to reach attainment would depend on the willingness not only of other states but also of nations around the globe to reduce their greenhouse gas emissions</t>
+          <t>EPAs greenhouse gas rule will impose a de facto ban on construction of new coal</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>We doare very interested as I said in my remarks want to see the full investigation because we want to understand was there something else people were looking at that caused them to make the decisions they made as opposed to making the decisions that almost any of our drilling operations people would have made differently that led to the ultimate loss of the well</t>
+          <t>Michael McNulty Attachment B clean power group multiemission control strategy materials Clean Power Groups MultiPollutant Emission Control Strategy The power generation sector is a major contributor to US air pollution</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>You would be a real hero if you could get us the energy bill</t>
+          <t>Last fall we published a report Biofuels Issues and Trendsit is attached to my testimonyto provide an overview of the dynamics of production consumption trade in ethanol biodiesel and cellulosic fuels</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,17 +1538,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>So the advantages that you would get from lets say maybe keeping a lid on the Brent price which affects gasoline pricethat advantage still exists and meanwhile the refineries are still operating</t>
+          <t>And this is a key moment for the committee to play a role in addressing climate change and this bill does make several key investments for our energy future although I am willing to entertain more possibilities</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>As our country pursues interim storage solutionsand ultimately a permanent repository for spent nuclear fuelit is critical that we ensure the funds necessary to safely transport and store this material are available</t>
+          <t>According to the Congressional Research Service nuclear research and development has gotten more than 60 or 66 billion in energy research and development funding from 19481998</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,57 +1558,57 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>We took a plant in Michigan called the Michigan Truck Plant which produced Expeditions and Navigators large SUVs and converted it into making small cars and now that plant makes Focus CMax hybrid CMax plugin hybrid Focus battery electric vehicle all in the same plant down the same line only place in the world where we do where that is done</t>
+          <t>I guess what I would conclude you said you would not put a roadblock up to exporting coal</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>At the end of May working gas in storage stood about 38 percent below endofMay 2002 levels and 28 percent below the previous 5year average</t>
+          <t>You would be a real hero if you could get us the energy bill</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>For example advanced nuclear technologies might be one thing that you could put into repower an existing fossil generating plant like that</t>
+          <t>This KXL scheme is equivalent to a 4 billionayear tax on the oil we are already getting from Canada with all the money going from American wallets and pocketbooks to oil companies</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>And I hope that we can find new ways to use coal even cleaner than we are using it today</t>
+          <t>The fossil fuel industry and House Republicans have a credibility problem when it comes to claims about the economic impacts of the Clean Air Act</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Leading Democrats are calling for the elimination of nuclear powerfortunately not our Chairman herebut nearly every single major candidate wants to eliminate or phase out nuclear power</t>
+          <t>In fact President Trump had proposed doing away with the Northeast gasoline supply reserve which had been created administratively by President Obama in response to the dangerous shortages that occurred in the wake of Superstorm Sandy including in my area of New Jersey</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>And so I think that to help wean Europe off of Russian energy this might be a good thing</t>
+          <t>And Mr Shimkus is from a State that has the most spent nuclear waste in the country</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>We know from past statistics that the solar industry is in the top 10 growing industries in our country</t>
+          <t>In summary we believe tomorrows automobiles must be flexible enough to accommodate many different energy sources</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>For the first time in six decades the United States is a net natural gas exporter</t>
+          <t>That is why Canadas oil sands is nearly as valuable as an example of energy policy done right as it is for the oil itself</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,17 +1638,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>And a lot of it had to do with deregulating our domestic environment and making a whole suite of challenges and deciding that we were going to commit to this internationally connected and efficient market for oil and gas and things like that</t>
+          <t>We took a plant in Michigan called the Michigan Truck Plant which produced Expeditions and Navigators large SUVs and converted it into making small cars and now that plant makes Focus CMax hybrid CMax plugin hybrid Focus battery electric vehicle all in the same plant down the same line only place in the world where we do where that is done</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>We may even get some pleasant surprises such as we recently experienced with the shale gas revolution</t>
+          <t>Our agreement builds on XTOs nearly quarter century of success in developing affordable reliable cleanerburning US unconventional natural gas supplies for use by Americans</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,37 +1658,37 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>And with Canadas vast proven oil reserves the prospect of North American energy independence is no longer political rhetoric but a promising reality</t>
+          <t>We know from past statistics that the solar industry is in the top 10 growing industries in our country</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Now were focusing on climate tact and climate energy</t>
+          <t>We greatly appreciate the bipartisan support for coal in the Committee as reflected in both the Housepassed version of HR</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>And of course it is troubling as a consumer but also I mean I guess because of theof 10 percent ethanol I spend a lot of time at my lawn mower repair shop Lowerys Motors in Lewisville Texas and he said that the ethanol in gasoline had been very good for the lawn mower repair business or the small engine repair business because he gets a lot of business</t>
+          <t>Chairman Meserve I have got a series of questions about the transportation of nuclear waste</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>First the authority Congress set forth for setting efficiency standards the Energy Policy Conservation Act is 40 years old and has not been undated to reflect new technologies and economic realities</t>
+          <t>Page 11 of your testimony you recommend that Congress require the Clean Air Scientific Advisory Committee CASAC to comply with the Clean Air Act Section 109d and advise the Administrator of any adverse public health welfare social economic or energy effects which may result from various strategies for attainment and maintenance of air quality standards</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Americas hydrocarbon renaissance has given us the gift of time</t>
+          <t>But I think you would agree with me that it has been in about the last 10 years or so that it has been used a lot more than it had been because of the necessity of getting some difficult natural gas out of the ground</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>But you continue to hide evaporative emissions by even using tailpipe emissions in my opinion</t>
+          <t>Now were focusing on climate tact and climate energy</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>In fact Congress is in the midst of playing local politics with the most important energy project in the United States</t>
+          <t>This outdated physical integration requirement prevents utility companies from investing capital outside their geographic region shutting off a valuable potential source of domestic capital investment in needed energy facilities and ironically fostering the very kind of concentration in regional energy markets that FERC is trying to reduce</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Going further if we aggressively improve efficiency by four or five percentage points then emissions could fall by 250 metric tons about 13 percent of last years carbon dioxide emissions from coal power</t>
+          <t>We can all agree that we do need some oil and gas development</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,17 +1738,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>My companys view and my personal perspective is that all fuel sources have something to offer and a diverse portfolio is key to a reliable electric grid</t>
+          <t>I am concerned that you all dont get noticed under the Clean Power Plan for interaction about what is going to happen when the plants close down</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>It is time for Congress to provide an updated National Energy policy</t>
+          <t>We have partnerships throughout the United States and with universities with national labs with all kinds of differentand other companies as well looking at everything from hydrogen to of course batteries and electrification of the vehicles and what is happening with compact natural gas and everything else</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>You have already got your nose under the tent with the emissions part of the car</t>
+          <t>And one of the big dilemmas that we face and it is being argued here I think largely around this question of decoupling is what is the dislocation that occurs when you go from one energy policy to a new one</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,17 +1768,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>As we develop a comprehensive national energy policy efficiency and conservation are definitely part of what needs to be a comprehensive plan that also needs to include the development of our own natural resources to reduce our dependence on foreign oil</t>
+          <t>I will make a comment from the perspective of energy efficiency</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>This group spent over two years evaluating and documenting best practices from across all types of energy pipeline systems</t>
+          <t>My testimony aligns with the following points America is facing two national security threats one around climate change and the other around the US nuclear power enterprise</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,27 +1788,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>The bill would short circuit the established review process for pending and future LNG export applications</t>
+          <t>There has been a lot of investment and that has been a lot of indirect jobs that have gone into that in building renewable refinery capacity and it is all happened not at the expense of the petroleum industry</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>The money basically comes from private investors in Kyoto party nations like in Europe who choose to get some of their emissions credits through the clean development mechanism by investing in countries like China or India or African countries or developing countries around the world</t>
+          <t>A leading example is the Energy Star Program which is delivering significant results</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>What type of an impact would meeting the goals of the Renewable Fuel Standard have on jobs here in America</t>
+          <t>Technological advancements on the electrical grid from transmission through end use have helped improve efficiency and reduced emissions</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,17 +1818,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>The savings from the CAFE proposal like I mentioned is more than three times proven reserves of oil in the United States</t>
+          <t>And a lot of it had to do with deregulating our domestic environment and making a whole suite of challenges and deciding that we were going to commit to this internationally connected and efficient market for oil and gas and things like that</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>He said in his oil statement and again just now that somehow companyan individual company would have to go out and assess the exposure not only to their use of the chemical but to everybody else on the market</t>
+          <t>And if I can share more expertise that we have in Texas and the south related to wildfire hazardous fuel reduction and prescribed burning</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>But the problem is that even with this particular issue included with the high gas prices we are not seeing any correspondence between underlying costs and prices in the wholesale market</t>
+          <t>We have a very favorable climate for construction approval siting of new power plants new generating facilities</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,10 +1848,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>The Chair would recognize the ranking member of the Energy and Air Quality Subcommittee Mr Boucher of Virginia</t>
+          <t>While the nodrive program did not produce the desired results the cleaner burning gasoline did</t>
         </is>
       </c>
       <c r="B142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>But the problem is that even with this particular issue included with the high gas prices we are not seeing any correspondence between underlying costs and prices in the wholesale market</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
         <v>2</v>
       </c>
     </row>
